--- a/ValueSet-pacio-cat-vs.xlsx
+++ b/ValueSet-pacio-cat-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T16:24:56-07:00</t>
+    <t>2021-09-15T21:08:33-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pacio-cat-vs.xlsx
+++ b/ValueSet-pacio-cat-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T21:08:33-07:00</t>
+    <t>2021-09-16T08:49:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pacio-cat-vs.xlsx
+++ b/ValueSet-pacio-cat-vs.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from PACIO Functioning " r:id="rId5" sheetId="3"/>
+    <sheet name="Include from PACIO Functionin" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T08:49:25-07:00</t>
+    <t>2021-09-29T17:17:11-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pacio-cat-vs.xlsx
+++ b/ValueSet-pacio-cat-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T17:17:11-07:00</t>
+    <t>2021-09-30T07:46:12-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
